--- a/Dicionário de Dados.xlsx
+++ b/Dicionário de Dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcmma\Documents\GitHub\BD_Faculdade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D02C04-FD7B-45A1-8713-33641DCCAD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823FAAD5-0E28-4AC3-86EF-D778ACA72244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{7322636D-572D-48CD-9664-CDD954481AED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{7322636D-572D-48CD-9664-CDD954481AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="161">
   <si>
     <t>DICIONÁRIO DE DADOS: ENTIDADES</t>
   </si>
@@ -339,21 +339,9 @@
     <t>CPF do aluno</t>
   </si>
   <si>
-    <t>Telefone</t>
-  </si>
-  <si>
-    <t>Telefones* do aluno</t>
-  </si>
-  <si>
     <t>Status da matrícula do aluno (ativo / inativo)</t>
   </si>
   <si>
-    <t>Formas de contato com o aluno</t>
-  </si>
-  <si>
-    <t>Contato</t>
-  </si>
-  <si>
     <t>Sexo</t>
   </si>
   <si>
@@ -363,30 +351,15 @@
     <t>Sexo do aluno</t>
   </si>
   <si>
-    <t>Filiação</t>
-  </si>
-  <si>
     <t>80 bytes</t>
   </si>
   <si>
     <t>Nome da mãe do aluno</t>
   </si>
   <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>Rua</t>
-  </si>
-  <si>
-    <t>Número</t>
-  </si>
-  <si>
     <t>CEP</t>
   </si>
   <si>
-    <t>Endereço do aluno, divido em Rua, número e CEP</t>
-  </si>
-  <si>
     <t>Cod_Disciplina</t>
   </si>
   <si>
@@ -432,12 +405,6 @@
     <t>Código de identificação do histórico</t>
   </si>
   <si>
-    <t>Duração de realização da disciplina (em meses)</t>
-  </si>
-  <si>
-    <t>Período_Realização</t>
-  </si>
-  <si>
     <t>Entidade HIST_DISCIPLINA</t>
   </si>
   <si>
@@ -469,6 +436,87 @@
   </si>
   <si>
     <t>DICIONÁRIO DE DADOS: ATRIBUTOS</t>
+  </si>
+  <si>
+    <t>1ª Forma Normal aplicada</t>
+  </si>
+  <si>
+    <t>Nome_rua</t>
+  </si>
+  <si>
+    <t>Num_rua</t>
+  </si>
+  <si>
+    <t>Número do endereço do aluno</t>
+  </si>
+  <si>
+    <t>Nome da rua do endereço do aluno</t>
+  </si>
+  <si>
+    <t>Número do CEP do endereço do aluno</t>
+  </si>
+  <si>
+    <t>1ªForma Normal aplicada</t>
+  </si>
+  <si>
+    <t>Data de término da disciplina do aluno</t>
+  </si>
+  <si>
+    <t>Data de início da disciplina do aluno</t>
+  </si>
+  <si>
+    <t>8bytes</t>
+  </si>
+  <si>
+    <t>Data_Fim</t>
+  </si>
+  <si>
+    <t>Nome_Pai</t>
+  </si>
+  <si>
+    <t>Nome_Mãe</t>
+  </si>
+  <si>
+    <t>Nome do pai do aluno</t>
+  </si>
+  <si>
+    <t>Endereço de e-mail do telefone</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>15 bytes</t>
+  </si>
+  <si>
+    <t>Número de contato do WhatsApp do aluno</t>
+  </si>
+  <si>
+    <t>Número do telefone celular do aluno</t>
+  </si>
+  <si>
+    <t>Número de contato para recados ao aluno</t>
+  </si>
+  <si>
+    <t>Tel_celular</t>
+  </si>
+  <si>
+    <t>Tel_recado</t>
+  </si>
+  <si>
+    <t>Verificar se os campos possuem valores atômicos (somente pode haver um valor em cada campo)</t>
+  </si>
+  <si>
+    <t>1ª FORMA NORMAL</t>
+  </si>
+  <si>
+    <t>2ªFORMA NORMAL</t>
+  </si>
+  <si>
+    <t>Verificar se todos os atributos não-chave são dependentes da chave primária. (Não pode haver dependências parciais)</t>
   </si>
 </sst>
 </file>
@@ -525,7 +573,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -744,48 +792,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -804,24 +857,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -841,13 +876,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,23 +937,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,7 +1278,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1207,413 +1293,413 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25"/>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25"/>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="25"/>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25"/>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="25"/>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="25"/>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1622,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621C709-D833-4B1E-A869-0A41CA3D9B62}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1636,1248 +1722,1382 @@
     <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-    </row>
-    <row r="5" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="H4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="I5" s="52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-    </row>
-    <row r="10" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="H9" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="I10" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="I15" s="53"/>
+    </row>
+    <row r="16" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16" s="53"/>
+    </row>
+    <row r="17" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-    </row>
-    <row r="18" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="H17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="53"/>
+    </row>
+    <row r="18" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="I18" s="53"/>
+    </row>
+    <row r="19" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+    <row r="22" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-    </row>
-    <row r="24" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="H23" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
+    <row r="25" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+    <row r="27" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
+    <row r="28" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
+    <row r="29" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
+    <row r="31" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="H32" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="38"/>
+      <c r="C34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="38"/>
+      <c r="C36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="5" t="s">
+    </row>
+    <row r="39" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="F41" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
+      <c r="F42" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="5" t="s">
+      <c r="E45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="D46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="5" t="s">
+      <c r="F46" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="38"/>
+      <c r="C47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="40"/>
+      <c r="C50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
+      <c r="H52" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="38"/>
+      <c r="C53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="38"/>
+      <c r="C54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E54" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="38"/>
+      <c r="C55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="38"/>
+      <c r="C56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="38"/>
+      <c r="C57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
+      <c r="F57" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="38"/>
+      <c r="C58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="40"/>
+      <c r="C59" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
+      <c r="H61" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="38"/>
+      <c r="C62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="38"/>
+      <c r="C63" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="38"/>
+      <c r="C64" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="46"/>
+      <c r="C65" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="40"/>
+      <c r="C66" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="43"/>
+      <c r="H68" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="38"/>
+      <c r="C69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="38"/>
+      <c r="C72" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="40"/>
+      <c r="C73" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="43"/>
+      <c r="H75" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="38"/>
+      <c r="C76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="5" t="s">
+      <c r="B77" s="38"/>
+      <c r="C77" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="34" t="s">
+      <c r="E77" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="34" t="s">
+    <row r="78" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="39" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
+      <c r="B78" s="40"/>
+      <c r="C78" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="42"/>
-    </row>
-    <row r="47" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
-      <c r="B47" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="44"/>
-    </row>
-    <row r="48" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="41"/>
-    </row>
-    <row r="50" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
+    </row>
+    <row r="79" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="43"/>
+      <c r="H80" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="5" t="s">
+      <c r="B81" s="38"/>
+      <c r="C81" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E81" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F81" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="5" t="s">
+    <row r="82" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="38"/>
+      <c r="C82" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
+      <c r="E82" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="40"/>
+      <c r="C83" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="43"/>
+      <c r="H85" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="38"/>
+      <c r="C86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" s="34" t="s">
+    </row>
+    <row r="87" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="38"/>
+      <c r="C87" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="5" t="s">
+      <c r="F87" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="40"/>
+      <c r="C88" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D88" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="41"/>
-    </row>
-    <row r="59" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="41"/>
-    </row>
-    <row r="65" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F65" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F68" s="34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" s="38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="41"/>
-    </row>
-    <row r="72" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F74" s="38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="41"/>
-    </row>
-    <row r="77" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="37"/>
-      <c r="C79" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F79" s="38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="81" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="41"/>
-    </row>
-    <row r="82" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F83" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B84" s="37"/>
-      <c r="C84" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F84" s="38" t="s">
-        <v>118</v>
+      <c r="E88" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A49:F49"/>
+  <mergeCells count="75">
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I5:I7"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A33:B33"/>
@@ -2887,16 +3107,6 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A27:B27"/>
@@ -2904,21 +3114,41 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A73:B73"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dicionário de Dados.xlsx
+++ b/Dicionário de Dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcmma\Documents\GitHub\BD_Faculdade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Napp - Integração\Documents\GitHub\BD_Faculdade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823FAAD5-0E28-4AC3-86EF-D778ACA72244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58624865-CC14-4B79-9C21-C458C4D953BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{7322636D-572D-48CD-9664-CDD954481AED}"/>
+    <workbookView xWindow="-21720" yWindow="-1185" windowWidth="21840" windowHeight="13290" activeTab="1" xr2:uid="{7322636D-572D-48CD-9664-CDD954481AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Entidades" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="162">
   <si>
     <t>DICIONÁRIO DE DADOS: ENTIDADES</t>
   </si>
@@ -516,7 +516,10 @@
     <t>2ªFORMA NORMAL</t>
   </si>
   <si>
-    <t>Verificar se todos os atributos não-chave são dependentes da chave primária. (Não pode haver dependências parciais)</t>
+    <t>Verificar se todos os atributos não-chave são fucnionalmente dependentes da chave primária. Não pode haver dependências parciais. Atributos não dependem de chaves candidatas.</t>
+  </si>
+  <si>
+    <t>2ª Forma Normal aplicada</t>
   </si>
 </sst>
 </file>
@@ -877,73 +880,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -952,14 +889,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,27 +1284,27 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="31.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+    <row r="1" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-    </row>
-    <row r="3" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -1315,14 +1318,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1331,32 +1334,32 @@
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1365,22 +1368,22 @@
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1389,22 +1392,22 @@
       <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="16" t="s">
@@ -1413,42 +1416,42 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+    <row r="14" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
       <c r="B14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
       <c r="B15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
       <c r="B16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="D16" s="36"/>
+    </row>
+    <row r="17" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -1457,42 +1460,42 @@
       <c r="C17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
       <c r="B18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
       <c r="B19" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
       <c r="B20" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -1501,62 +1504,62 @@
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
       <c r="B22" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
       <c r="B23" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
       <c r="B24" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="D24" s="35"/>
+    </row>
+    <row r="25" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
       <c r="B26" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="D26" s="36"/>
+    </row>
+    <row r="27" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -1565,22 +1568,22 @@
       <c r="C27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="25"/>
+    <row r="28" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="D28" s="36"/>
+    </row>
+    <row r="29" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -1589,22 +1592,22 @@
       <c r="C29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="25"/>
+    <row r="30" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
       <c r="B30" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="D30" s="36"/>
+    </row>
+    <row r="31" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -1613,22 +1616,22 @@
       <c r="C31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
+    <row r="32" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33"/>
       <c r="B32" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="D32" s="36"/>
+    </row>
+    <row r="33" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -1637,22 +1640,22 @@
       <c r="C33" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="25"/>
+    <row r="34" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
       <c r="B34" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="27"/>
-    </row>
-    <row r="35" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+      <c r="D34" s="36"/>
+    </row>
+    <row r="35" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -1661,38 +1664,22 @@
       <c r="C35" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="25"/>
+    <row r="36" spans="1:4" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33"/>
       <c r="B36" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="D21:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="D29:D30"/>
@@ -1700,6 +1687,22 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D21:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1708,62 +1711,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621C709-D833-4B1E-A869-0A41CA3D9B62}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+    <row r="1" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="H4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="J4" s="27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1776,15 +1780,18 @@
       <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="H5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
@@ -1797,13 +1804,13 @@
       <c r="F6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
+      <c r="J6" s="41"/>
+    </row>
+    <row r="7" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="9" t="s">
         <v>54</v>
       </c>
@@ -1816,30 +1823,31 @@
       <c r="F7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="J7" s="41"/>
+    </row>
+    <row r="8" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="H9" s="44" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="H9" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
@@ -1852,15 +1860,18 @@
       <c r="F10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="H10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="40" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
@@ -1873,13 +1884,13 @@
       <c r="F11" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="51"/>
-    </row>
-    <row r="12" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="4" t="s">
         <v>54</v>
       </c>
@@ -1892,13 +1903,13 @@
       <c r="F12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="51"/>
-    </row>
-    <row r="13" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="4" t="s">
         <v>54</v>
       </c>
@@ -1911,13 +1922,13 @@
       <c r="F13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="50"/>
-    </row>
-    <row r="14" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
@@ -1931,11 +1942,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
+    <row r="15" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="9" t="s">
         <v>67</v>
       </c>
@@ -1948,30 +1959,30 @@
       <c r="F15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="53"/>
-    </row>
-    <row r="16" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I16" s="53"/>
-    </row>
-    <row r="17" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
       <c r="H17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="53"/>
-    </row>
-    <row r="18" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1984,13 +1995,13 @@
       <c r="F18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="53"/>
-    </row>
-    <row r="19" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
@@ -2004,11 +2015,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="4" t="s">
         <v>54</v>
       </c>
@@ -2022,11 +2033,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="9" t="s">
         <v>49</v>
       </c>
@@ -2040,25 +2051,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+    <row r="22" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
       <c r="H23" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
+    <row r="24" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="4" t="s">
         <v>46</v>
       </c>
@@ -2072,11 +2083,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
@@ -2090,11 +2101,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
@@ -2108,11 +2119,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="4" t="s">
         <v>54</v>
       </c>
@@ -2126,11 +2137,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
@@ -2144,11 +2155,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="4" t="s">
         <v>85</v>
       </c>
@@ -2162,11 +2173,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="9" t="s">
         <v>85</v>
       </c>
@@ -2180,25 +2191,25 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41" t="s">
+    <row r="31" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
       <c r="H32" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+    <row r="33" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="4" t="s">
         <v>46</v>
       </c>
@@ -2212,11 +2223,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="4" t="s">
         <v>54</v>
       </c>
@@ -2230,11 +2241,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="4" t="s">
         <v>54</v>
       </c>
@@ -2248,11 +2259,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+    <row r="36" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="38"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="4" t="s">
         <v>54</v>
       </c>
@@ -2266,11 +2277,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+    <row r="37" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="38"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="4" t="s">
         <v>54</v>
       </c>
@@ -2284,11 +2295,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
+    <row r="38" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="38"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="4" t="s">
         <v>67</v>
       </c>
@@ -2302,11 +2313,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="37" t="s">
+    <row r="39" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="38"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="4" t="s">
         <v>49</v>
       </c>
@@ -2320,11 +2331,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
+    <row r="40" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="38"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="4" t="s">
         <v>49</v>
       </c>
@@ -2338,11 +2349,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+    <row r="41" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="38"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="4" t="s">
         <v>54</v>
       </c>
@@ -2356,7 +2367,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>135</v>
       </c>
@@ -2374,11 +2385,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
+    <row r="43" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="4" t="s">
         <v>49</v>
       </c>
@@ -2392,11 +2403,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
+    <row r="44" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="4" t="s">
         <v>54</v>
       </c>
@@ -2410,7 +2421,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>145</v>
       </c>
@@ -2428,8 +2439,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48" t="s">
+    <row r="46" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
         <v>146</v>
       </c>
       <c r="B46" s="4"/>
@@ -2446,11 +2457,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+    <row r="47" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B47" s="38"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="4" t="s">
         <v>54</v>
       </c>
@@ -2464,11 +2475,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
+    <row r="48" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="4" t="s">
         <v>54</v>
       </c>
@@ -2482,11 +2493,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+    <row r="49" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="4" t="s">
         <v>54</v>
       </c>
@@ -2500,11 +2511,11 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="39" t="s">
+    <row r="50" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="40"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="9" t="s">
         <v>54</v>
       </c>
@@ -2518,25 +2529,25 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41" t="s">
+    <row r="51" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
       <c r="H52" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="37" t="s">
+    <row r="53" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="38"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="4" t="s">
         <v>46</v>
       </c>
@@ -2550,11 +2561,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="37" t="s">
+    <row r="54" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="38"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="4" t="s">
         <v>49</v>
       </c>
@@ -2568,11 +2579,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
+    <row r="55" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="38"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="4" t="s">
         <v>54</v>
       </c>
@@ -2586,11 +2597,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+    <row r="56" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="38"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="4" t="s">
         <v>54</v>
       </c>
@@ -2604,11 +2615,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="s">
+    <row r="57" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="38"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="4" t="s">
         <v>49</v>
       </c>
@@ -2622,11 +2633,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="37" t="s">
+    <row r="58" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="38"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="4" t="s">
         <v>49</v>
       </c>
@@ -2640,11 +2651,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="39" t="s">
+    <row r="59" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="40"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="9" t="s">
         <v>49</v>
       </c>
@@ -2658,25 +2669,25 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41" t="s">
+    <row r="60" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="48"/>
       <c r="H61" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="37" t="s">
+    <row r="62" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="4" t="s">
         <v>46</v>
       </c>
@@ -2690,11 +2701,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="37" t="s">
+    <row r="63" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="38"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="4" t="s">
         <v>49</v>
       </c>
@@ -2708,11 +2719,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
+    <row r="64" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="38"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="4" t="s">
         <v>49</v>
       </c>
@@ -2726,11 +2737,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="s">
+    <row r="65" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="46"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="6" t="s">
         <v>85</v>
       </c>
@@ -2740,15 +2751,15 @@
       <c r="E65" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F65" s="47" t="s">
+      <c r="F65" s="25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="39" t="s">
+    <row r="66" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="40"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="9" t="s">
         <v>85</v>
       </c>
@@ -2762,25 +2773,25 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="41" t="s">
+    <row r="67" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="43"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="48"/>
       <c r="H68" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="37" t="s">
+    <row r="69" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="38"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="4" t="s">
         <v>46</v>
       </c>
@@ -2794,11 +2805,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="37" t="s">
+    <row r="70" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="38"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="4" t="s">
         <v>49</v>
       </c>
@@ -2812,11 +2823,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="37" t="s">
+    <row r="71" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="38"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="4" t="s">
         <v>49</v>
       </c>
@@ -2830,11 +2841,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="37" t="s">
+    <row r="72" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="38"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="4" t="s">
         <v>126</v>
       </c>
@@ -2848,11 +2859,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="39" t="s">
+    <row r="73" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="40"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="9" t="s">
         <v>49</v>
       </c>
@@ -2866,25 +2877,25 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="41" t="s">
+    <row r="74" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="43"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="48"/>
       <c r="H75" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="37" t="s">
+    <row r="76" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="38"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="4" t="s">
         <v>46</v>
       </c>
@@ -2898,11 +2909,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+    <row r="77" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="38"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="4" t="s">
         <v>49</v>
       </c>
@@ -2916,11 +2927,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="39" t="s">
+    <row r="78" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="40"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="9" t="s">
         <v>49</v>
       </c>
@@ -2934,25 +2945,25 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="41" t="s">
+    <row r="79" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="43"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="48"/>
       <c r="H80" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+    <row r="81" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B81" s="38"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="4" t="s">
         <v>46</v>
       </c>
@@ -2966,11 +2977,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="37" t="s">
+    <row r="82" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B82" s="38"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="4" t="s">
         <v>49</v>
       </c>
@@ -2984,11 +2995,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="39" t="s">
+    <row r="83" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="40"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="9" t="s">
         <v>49</v>
       </c>
@@ -3002,25 +3013,25 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="41" t="s">
+    <row r="84" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="43"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="48"/>
       <c r="H85" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="37" t="s">
+    <row r="86" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="38"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="4" t="s">
         <v>46</v>
       </c>
@@ -3034,11 +3045,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+    <row r="87" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="38"/>
+      <c r="B87" s="45"/>
       <c r="C87" s="4" t="s">
         <v>49</v>
       </c>
@@ -3052,11 +3063,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="39" t="s">
+    <row r="88" spans="1:8" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="40"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="9" t="s">
         <v>49</v>
       </c>
@@ -3072,65 +3083,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A86:B86"/>
@@ -3147,6 +3099,65 @@
     <mergeCell ref="A85:F85"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
